--- a/ot2inst_sequencing_preparation.xlsx
+++ b/ot2inst_sequencing_preparation.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="6" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="5" r:id="rId3"/>
-    <sheet name="4" sheetId="6" r:id="rId4"/>
+    <sheet name="4" sheetId="4" r:id="rId3"/>
+    <sheet name="5" sheetId="5" r:id="rId4"/>
     <sheet name="slot_setup" sheetId="2" r:id="rId5"/>
     <sheet name="x" sheetId="1" r:id="rId6"/>
   </sheets>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
   <si>
     <t>A</t>
   </si>
@@ -101,100 +101,142 @@
     <t>global_volume</t>
   </si>
   <si>
-    <t>pTCI046</t>
-  </si>
-  <si>
-    <t>pTCI047</t>
-  </si>
-  <si>
-    <t>pTCI048</t>
-  </si>
-  <si>
-    <t>pTCI049</t>
-  </si>
-  <si>
-    <t>pTCI050</t>
-  </si>
-  <si>
-    <t>pTCI051</t>
-  </si>
-  <si>
-    <t>pTCI052</t>
-  </si>
-  <si>
-    <t>pTCI053</t>
-  </si>
-  <si>
-    <t>pTCI054</t>
-  </si>
-  <si>
-    <t>pTCI055</t>
-  </si>
-  <si>
-    <t>pTCI056</t>
-  </si>
-  <si>
-    <t>pTCI057</t>
-  </si>
-  <si>
-    <t>pTCI058</t>
-  </si>
-  <si>
-    <t>pTCI059</t>
-  </si>
-  <si>
-    <t>pTCI060</t>
-  </si>
-  <si>
-    <t>pTCI061</t>
-  </si>
-  <si>
-    <t>pTCI062</t>
-  </si>
-  <si>
-    <t>pTCI063</t>
-  </si>
-  <si>
-    <t>pTCI064</t>
-  </si>
-  <si>
-    <t>pTCI065</t>
-  </si>
-  <si>
-    <t>pTCI066</t>
-  </si>
-  <si>
-    <t>pTCI067</t>
-  </si>
-  <si>
-    <t>pTCI068</t>
-  </si>
-  <si>
-    <t>pTCI069</t>
-  </si>
-  <si>
-    <t>pTCI070</t>
-  </si>
-  <si>
-    <t>pTCI071</t>
-  </si>
-  <si>
-    <t>pTCI072</t>
-  </si>
-  <si>
-    <t>pTCI073</t>
-  </si>
-  <si>
-    <t>pTCI074</t>
-  </si>
-  <si>
-    <t>pTCI075</t>
-  </si>
-  <si>
-    <t>pTCI076</t>
-  </si>
-  <si>
-    <t>pTCI077</t>
+    <t>IBMs0518</t>
+  </si>
+  <si>
+    <t>IBMs0519</t>
+  </si>
+  <si>
+    <t>IBMs0520</t>
+  </si>
+  <si>
+    <t>IBMs0521</t>
+  </si>
+  <si>
+    <t>IBMs0522</t>
+  </si>
+  <si>
+    <t>IBMs0523</t>
+  </si>
+  <si>
+    <t>IBMs0524</t>
+  </si>
+  <si>
+    <t>IBMs0525</t>
+  </si>
+  <si>
+    <t>IBMs0526</t>
+  </si>
+  <si>
+    <t>IBMs0527</t>
+  </si>
+  <si>
+    <t>IBMs0528</t>
+  </si>
+  <si>
+    <t>IBMs0529</t>
+  </si>
+  <si>
+    <t>IBMs0530</t>
+  </si>
+  <si>
+    <t>IBMs0531</t>
+  </si>
+  <si>
+    <t>IBMs0532</t>
+  </si>
+  <si>
+    <t>IBMs0533</t>
+  </si>
+  <si>
+    <t>IBMs0534</t>
+  </si>
+  <si>
+    <t>IBMs0535</t>
+  </si>
+  <si>
+    <t>IBMs0536</t>
+  </si>
+  <si>
+    <t>IBMs0537</t>
+  </si>
+  <si>
+    <t>IBMs0538</t>
+  </si>
+  <si>
+    <t>IBMs0539</t>
+  </si>
+  <si>
+    <t>IBMs0540</t>
+  </si>
+  <si>
+    <t>IBMs0541</t>
+  </si>
+  <si>
+    <t>IBMs0542</t>
+  </si>
+  <si>
+    <t>IBMs0543</t>
+  </si>
+  <si>
+    <t>IBMs0544</t>
+  </si>
+  <si>
+    <t>IBMs0545</t>
+  </si>
+  <si>
+    <t>IBMs0546</t>
+  </si>
+  <si>
+    <t>IBMs0547</t>
+  </si>
+  <si>
+    <t>IBMs0548</t>
+  </si>
+  <si>
+    <t>IBMs0549</t>
+  </si>
+  <si>
+    <t>IBMs0550</t>
+  </si>
+  <si>
+    <t>IBMs0551</t>
+  </si>
+  <si>
+    <t>IBMs0552</t>
+  </si>
+  <si>
+    <t>IBMs0553</t>
+  </si>
+  <si>
+    <t>IBMs0554</t>
+  </si>
+  <si>
+    <t>IBMs0555</t>
+  </si>
+  <si>
+    <t>IBMs0556</t>
+  </si>
+  <si>
+    <t>IBMs0557</t>
+  </si>
+  <si>
+    <t>IBMs0558</t>
+  </si>
+  <si>
+    <t>IBMs0559</t>
+  </si>
+  <si>
+    <t>IBMs0560</t>
+  </si>
+  <si>
+    <t>IBMs0561</t>
+  </si>
+  <si>
+    <t>IBMs0562</t>
+  </si>
+  <si>
+    <t>row</t>
   </si>
 </sst>
 </file>
@@ -541,16 +583,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -632,19 +672,35 @@
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,9 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -665,6 +719,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -746,19 +803,35 @@
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,13 +842,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -800,22 +877,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,22 +900,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,27 +923,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -880,13 +967,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -911,22 +1001,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -934,22 +1024,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -957,27 +1047,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -991,8 +1091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1152,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1066,7 +1166,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
